--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxRecord.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxRecord.xlsx
@@ -378,10 +378,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CanModify</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FlowStep</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1013,6 +1009,10 @@
   </si>
   <si>
     <t>交易重要註記</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanModify</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1295,11 +1295,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1608,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1625,23 +1625,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="6"/>
       <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
@@ -1653,12 +1653,12 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="11"/>
@@ -1666,10 +1666,10 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="4"/>
       <c r="D4" s="25"/>
       <c r="E4" s="11"/>
@@ -1677,10 +1677,10 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="4"/>
       <c r="D5" s="25"/>
       <c r="E5" s="11"/>
@@ -1688,10 +1688,10 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="4"/>
       <c r="D6" s="25"/>
       <c r="E6" s="11"/>
@@ -1699,10 +1699,10 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="4"/>
       <c r="D7" s="25"/>
       <c r="E7" s="11"/>
@@ -1757,16 +1757,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="9"/>
@@ -1777,10 +1777,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>39</v>
@@ -1859,10 +1859,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>104</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>105</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>26</v>
@@ -1879,7 +1879,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>57</v>
@@ -1899,10 +1899,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>26</v>
@@ -1919,16 +1919,16 @@
         <v>10</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="21"/>
@@ -1939,7 +1939,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>30</v>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1961,10 +1961,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="35" t="s">
         <v>106</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>107</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>27</v>
@@ -1981,16 +1981,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="35" t="s">
         <v>118</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>119</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="21"/>
@@ -2041,7 +2041,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>33</v>
@@ -2081,10 +2081,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>101</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>102</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>27</v>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -2103,13 +2103,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E27" s="8">
         <v>8</v>
@@ -2168,7 +2168,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>26</v>
@@ -2185,16 +2185,16 @@
         <v>23</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="9"/>
@@ -2205,10 +2205,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>72</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>26</v>
@@ -2225,10 +2225,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>86</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>27</v>
@@ -2245,10 +2245,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>60</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>61</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>27</v>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2267,16 +2267,16 @@
         <v>27</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="38" t="s">
         <v>109</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>110</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="21"/>
@@ -2287,16 +2287,16 @@
         <v>28</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="D36" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="E36" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>115</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="21"/>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2329,7 +2329,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>46</v>
@@ -2342,7 +2342,7 @@
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2351,10 +2351,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>27</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2376,7 +2376,7 @@
         <v>47</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>48</v>
@@ -2393,10 +2393,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>39</v>
@@ -2435,20 +2435,20 @@
         <v>35</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="20" t="s">
         <v>141</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>142</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E43" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="39" t="s">
         <v>139</v>
-      </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="40" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -2457,13 +2457,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="D44" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="E44" s="10"/>
     </row>
@@ -2473,13 +2473,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="D45" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="E45" s="10">
         <v>6</v>
@@ -2491,13 +2491,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="D46" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E46" s="10"/>
     </row>
@@ -2507,13 +2507,13 @@
         <v>39</v>
       </c>
       <c r="B47" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="D47" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E47" s="10">
         <v>6</v>
@@ -2541,7 +2541,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2565,79 +2565,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>123</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxRecord.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxRecord.xlsx
@@ -531,10 +531,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FlowNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>流程控制序號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1004,15 +1000,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>交易重要註記</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanModify</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlowNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>ImportFg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易重要註記</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanModify</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1608,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1633,7 +1633,7 @@
         <v>21</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="6"/>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="11"/>
@@ -1760,7 +1760,7 @@
         <v>67</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>39</v>
@@ -1777,7 +1777,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>63</v>
@@ -1859,10 +1859,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>103</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>104</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>26</v>
@@ -1879,7 +1879,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>57</v>
@@ -1899,10 +1899,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>26</v>
@@ -1919,16 +1919,16 @@
         <v>10</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="21"/>
@@ -1961,10 +1961,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="35" t="s">
         <v>105</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>106</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>27</v>
@@ -1981,16 +1981,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="35" t="s">
         <v>117</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>118</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="21"/>
@@ -2041,7 +2041,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>33</v>
@@ -2081,10 +2081,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>100</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>101</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>27</v>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -2103,13 +2103,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" s="8">
         <v>8</v>
@@ -2168,7 +2168,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>26</v>
@@ -2185,16 +2185,16 @@
         <v>23</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="9"/>
@@ -2205,10 +2205,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>71</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>26</v>
@@ -2225,10 +2225,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>84</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>85</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>27</v>
@@ -2267,16 +2267,16 @@
         <v>27</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="38" t="s">
         <v>108</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>109</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="21"/>
@@ -2287,16 +2287,16 @@
         <v>28</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="D36" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="E36" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="21"/>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2329,7 +2329,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>46</v>
@@ -2342,7 +2342,7 @@
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2351,10 +2351,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>27</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2435,20 +2435,20 @@
         <v>35</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -2457,13 +2457,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="D44" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="E44" s="10"/>
     </row>
@@ -2473,13 +2473,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="D45" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>79</v>
       </c>
       <c r="E45" s="10">
         <v>6</v>
@@ -2491,13 +2491,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="D46" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E46" s="10"/>
     </row>
@@ -2507,13 +2507,13 @@
         <v>39</v>
       </c>
       <c r="B47" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>83</v>
-      </c>
       <c r="D47" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E47" s="10">
         <v>6</v>
@@ -2565,79 +2565,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>122</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxRecord.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxRecord.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -386,79 +386,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>登錄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>放行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>審核</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>審核放行</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>原訂正/修正序號-帳務日</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -790,10 +717,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Entdy = ,AND BrNo = ,AND TxResult = ,AND CanModify = ,AND ActionFg = ,AND Hcode&lt;&gt; ,AND TlrNo % ,AND TranNo %</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>findByLC011Hcode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1013,6 +936,83 @@
   </si>
   <si>
     <t>ImportFg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>登錄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>放行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>審核</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>審核放行</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entdy = ,AND BrNo = ,AND TxResult = ,AND CanModify = ,AND ActionFg = ,AND Hcode&lt;&gt; ,AND TlrNo % ,AND TranNo %</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1608,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1633,7 +1633,7 @@
         <v>21</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="6"/>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="11"/>
@@ -1757,16 +1757,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="9"/>
@@ -1777,10 +1777,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>39</v>
@@ -1859,10 +1859,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>102</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>103</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>26</v>
@@ -1879,7 +1879,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>57</v>
@@ -1899,10 +1899,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>26</v>
@@ -1919,16 +1919,16 @@
         <v>10</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="21"/>
@@ -1939,7 +1939,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>30</v>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1961,10 +1961,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="35" t="s">
         <v>104</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>105</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>27</v>
@@ -1981,16 +1981,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="35" t="s">
         <v>116</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>117</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="21"/>
@@ -2041,7 +2041,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>33</v>
@@ -2081,10 +2081,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>99</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>100</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>27</v>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -2103,13 +2103,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E27" s="8">
         <v>8</v>
@@ -2168,7 +2168,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>26</v>
@@ -2185,16 +2185,16 @@
         <v>23</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="9"/>
@@ -2205,10 +2205,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>26</v>
@@ -2225,10 +2225,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>83</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>84</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>27</v>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="21" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2267,16 +2267,16 @@
         <v>27</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="38" t="s">
         <v>107</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>108</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="21"/>
@@ -2287,16 +2287,16 @@
         <v>28</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="D36" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="E36" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="21"/>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2329,7 +2329,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>46</v>
@@ -2342,7 +2342,7 @@
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2351,10 +2351,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>27</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2376,7 +2376,7 @@
         <v>47</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>48</v>
@@ -2393,10 +2393,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>39</v>
@@ -2435,20 +2435,20 @@
         <v>35</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -2457,13 +2457,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="D44" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="E44" s="10"/>
     </row>
@@ -2473,13 +2473,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="D45" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>78</v>
       </c>
       <c r="E45" s="10">
         <v>6</v>
@@ -2491,13 +2491,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>80</v>
-      </c>
       <c r="D46" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E46" s="10"/>
     </row>
@@ -2507,13 +2507,13 @@
         <v>39</v>
       </c>
       <c r="B47" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="D47" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E47" s="10">
         <v>6</v>
@@ -2541,13 +2541,13 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.5546875" style="29"/>
-    <col min="2" max="2" width="122.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="130.6640625" style="29" customWidth="1"/>
     <col min="3" max="3" width="27.5546875" style="29"/>
     <col min="4" max="16384" width="27.5546875" style="31"/>
   </cols>
@@ -2565,79 +2565,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>123</v>
-      </c>
       <c r="C3" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>121</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxRecord.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxRecord.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BD501A-AFB7-4022-AD98-E6B2F12B4F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="9084"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="145">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -160,15 +171,120 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Entdy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MsgId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TxSeq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>交易代號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>借貸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幣別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>幣別</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>swift Code</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TlrNo</t>
+  </si>
+  <si>
+    <t>CurCode</t>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易序號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimald</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> E:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>失敗</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -180,32 +296,99 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>交易結果</t>
-    </r>
-  </si>
-  <si>
-    <t>varchar2</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>帳務日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易代號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>借貸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>幣別</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t>允許更正記號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>允許修正記號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrgEntdy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimald</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TranNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SupNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者編號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主管編號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易完整電文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TranData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>櫃台機種類</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanCancel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlowStep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程步驟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原訂正/修正序號-帳務日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原訂正/修正序號-交易序號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeCr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D.</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -214,7 +397,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>幣別</t>
+      <t>借</t>
     </r>
     <r>
       <rPr>
@@ -223,37 +406,132 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>swift Code</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TlrNo</t>
-  </si>
-  <si>
-    <t>CurCode</t>
-  </si>
-  <si>
-    <t>CurName</t>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易序號</t>
+      <t>Debit C.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>貸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Credit</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrgTxNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程控制序號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易編號/帳號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entdy,TxNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建檔日期時間</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>CreateEmpNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建檔人員</t>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+  </si>
+  <si>
+    <t>LastUpdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後更新日期時間</t>
+  </si>
+  <si>
+    <t>LastUpdateEmpNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後更新人員</t>
+  </si>
+  <si>
+    <t>FlowType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>帳務別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BrNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByBrNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易編號(單位+使用者編號+交易序號)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrmType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ErrMsg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>訊息代號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>錯誤訊息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -261,371 +539,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>nvarchar2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TxResult</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> E:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>失敗</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>允許更正記號</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>允許修正記號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrgEntdy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimald</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TranNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SupNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者編號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主管編號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CalTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易完整電文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TranData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>櫃台機種類</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanCancel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlowStep</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程步驟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>原訂正/修正序號-帳務日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>原訂正/修正序號-交易序號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeCr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>借</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Debit C.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>貸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Credit</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TxNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrgTxNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程控制序號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易編號/帳號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entdy,TxNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建檔日期時間</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>CreateEmpNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建檔人員</t>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-  </si>
-  <si>
-    <t>LastUpdate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後更新日期時間</t>
-  </si>
-  <si>
-    <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後更新人員</t>
-  </si>
-  <si>
-    <t>FlowType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程類別</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SecNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>帳務別</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BrNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByBrNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易編號(單位+使用者編號+交易序號)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TrmType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ErrMsg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>訊息代號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>錯誤訊息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimald</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CalDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易記錄檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Hcode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易型態</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>正常交易</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>訂正交易</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>修正交易</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -837,60 +751,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>已訂正</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>已修正</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>已沖正</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>findByLC011All</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1013,13 +873,165 @@
   </si>
   <si>
     <t>Entdy = ,AND BrNo = ,AND TxResult = ,AND CanModify = ,AND ActionFg = ,AND Hcode&lt;&gt; ,AND TlrNo % ,AND TranNo %</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entdy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳務日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易型態</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>已訂正</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>已修正</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>已沖正</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易記錄檔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>正常交易</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>訂正交易</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>修正交易</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易結果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxResult</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程類別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findImportFg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entdy = ,AND BrNo =,AND ImportFg =</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1177,7 +1189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1243,9 +1255,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1304,7 +1313,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1395,6 +1404,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1430,6 +1456,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1605,11 +1648,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1617,7 +1660,7 @@
     <col min="1" max="1" width="5.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="53.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="23" customWidth="1"/>
     <col min="5" max="5" width="6.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="51.77734375" style="14" customWidth="1"/>
@@ -1625,23 +1668,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>97</v>
+      <c r="D1" s="31" t="s">
+        <v>136</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="6"/>
       <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
@@ -1653,58 +1696,58 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="25"/>
+        <v>66</v>
+      </c>
+      <c r="D3" s="24"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="25"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="25"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="25"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="25"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="4"/>
@@ -1737,13 +1780,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>28</v>
+        <v>132</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>133</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>18</v>
@@ -1757,16 +1800,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>89</v>
+        <v>61</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>83</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="9"/>
@@ -1776,14 +1819,14 @@
         <f t="shared" ref="A11:A40" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>87</v>
+      <c r="B11" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E11" s="8">
         <v>4</v>
@@ -1796,14 +1839,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>36</v>
+      <c r="B12" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E12" s="8">
         <v>6</v>
@@ -1817,13 +1860,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>36</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>18</v>
@@ -1838,14 +1881,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>49</v>
+      <c r="B14" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E14" s="8">
         <v>5</v>
@@ -1858,14 +1901,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>102</v>
+      <c r="B15" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>92</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>19</v>
@@ -1878,14 +1921,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>90</v>
+      <c r="B16" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E16" s="8">
         <v>2</v>
@@ -1898,14 +1941,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>127</v>
+      <c r="B17" s="22" t="s">
+        <v>117</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17" s="8">
         <v>20</v>
@@ -1918,17 +1961,17 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>84</v>
+      <c r="B18" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="21"/>
@@ -1938,21 +1981,21 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>64</v>
+      <c r="B19" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E19" s="8">
         <v>1</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="21" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1960,16 +2003,16 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="37" t="s">
+      <c r="B20" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="36" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="8"/>
@@ -1980,17 +2023,17 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>117</v>
+      <c r="B21" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>107</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="21"/>
@@ -2000,14 +2043,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>37</v>
+      <c r="B22" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E22" s="8">
         <v>2</v>
@@ -2020,14 +2063,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>32</v>
+      <c r="B23" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E23" s="8">
         <v>3</v>
@@ -2040,14 +2083,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>114</v>
+      <c r="B24" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E24" s="8">
         <v>14</v>
@@ -2060,14 +2103,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B25" s="23" t="s">
-        <v>50</v>
+      <c r="B25" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E25" s="8">
         <v>6</v>
@@ -2080,21 +2123,21 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B26" s="23" t="s">
-        <v>98</v>
+      <c r="B26" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E26" s="8">
         <v>1</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="21" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -2102,14 +2145,14 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B27" s="23" t="s">
-        <v>96</v>
+      <c r="B27" s="22" t="s">
+        <v>137</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E27" s="8">
         <v>8</v>
@@ -2122,14 +2165,14 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>53</v>
+      <c r="B28" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E28" s="8">
         <v>6</v>
@@ -2143,20 +2186,20 @@
         <v>21</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>25</v>
+        <v>141</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2165,13 +2208,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>20</v>
@@ -2185,16 +2228,16 @@
         <v>23</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="9"/>
@@ -2204,14 +2247,14 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>139</v>
+      <c r="B32" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E32" s="8">
         <v>18</v>
@@ -2224,14 +2267,14 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>82</v>
+      <c r="B33" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E33" s="8">
         <v>1</v>
@@ -2244,21 +2287,21 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>59</v>
+      <c r="B34" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="21" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2267,16 +2310,16 @@
         <v>27</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>107</v>
+        <v>96</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>97</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="21"/>
@@ -2287,16 +2330,16 @@
         <v>28</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>110</v>
+        <v>99</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>100</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="21"/>
@@ -2307,20 +2350,20 @@
         <v>29</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>40</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="9" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2329,20 +2372,20 @@
         <v>30</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2351,20 +2394,20 @@
         <v>31</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="9" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2372,14 +2415,14 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B40" s="23" t="s">
-        <v>47</v>
+      <c r="B40" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E40" s="8">
         <v>8</v>
@@ -2392,14 +2435,14 @@
         <f t="shared" ref="A41:A47" si="1">A40+1</f>
         <v>33</v>
       </c>
-      <c r="B41" s="23" t="s">
-        <v>68</v>
+      <c r="B41" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E41" s="8">
         <v>18</v>
@@ -2413,16 +2456,16 @@
         <v>34</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="9"/>
@@ -2435,20 +2478,20 @@
         <v>35</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F43" s="10"/>
-      <c r="G43" s="39" t="s">
-        <v>136</v>
+      <c r="G43" s="38" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -2457,13 +2500,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E44" s="10"/>
     </row>
@@ -2473,13 +2516,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E45" s="10">
         <v>6</v>
@@ -2491,13 +2534,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E46" s="10"/>
     </row>
@@ -2507,13 +2550,13 @@
         <v>39</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E47" s="10">
         <v>6</v>
@@ -2536,108 +2579,119 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" style="29"/>
-    <col min="2" max="2" width="130.6640625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" style="29"/>
-    <col min="4" max="16384" width="27.5546875" style="31"/>
+    <col min="1" max="1" width="27.5546875" style="28"/>
+    <col min="2" max="2" width="130.6640625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" style="28"/>
+    <col min="4" max="16384" width="27.5546875" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="29" t="s">
+      <c r="A2" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="C5" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="C6" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>121</v>
+      <c r="C8" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxRecord.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxRecord.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BD501A-AFB7-4022-AD98-E6B2F12B4F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539D8404-6DA2-4BDA-AAB9-840A4B6D996A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="149">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1026,6 +1025,22 @@
   <si>
     <t>Entdy = ,AND BrNo =,AND ImportFg =</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByCustNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalDate &gt;= ,AND CalDate &lt;= ,AND BrNo = ,AND ImportFg =</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalDate &gt;= ,AND CalDate &lt;= ,AND BrNo = ,AND LockCustNo = ,AND ImportFg =</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByCalDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1651,8 +1666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2580,11 +2595,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2694,6 +2709,28 @@
         <v>111</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxRecord.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539D8404-6DA2-4BDA-AAB9-840A4B6D996A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394F3E9D-FEBF-4EE3-A6FF-95BEBD392D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1023,10 +1023,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Entdy = ,AND BrNo =,AND ImportFg =</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>findByCustNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1041,6 +1037,10 @@
   <si>
     <t>findByCalDate</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalDate = ,AND BrNo =,AND ImportFg =</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2599,7 +2599,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2703,7 +2703,7 @@
         <v>143</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>111</v>
@@ -2711,10 +2711,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>111</v>
@@ -2722,10 +2722,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>111</v>
